--- a/a_documents/Consolidado.xlsx
+++ b/a_documents/Consolidado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D83470-60B6-46B8-A7B9-C68F6EE5DFDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A87D02-E0E3-40EB-8307-78D8D4F4B7D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>EEG Waveform Analysis of P300 ERP with Applications to Brain Computer Interfaces</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Kaggle</t>
+  </si>
+  <si>
+    <t>tesis_n3966_Gambini.pdf</t>
+  </si>
+  <si>
+    <t>Modelos de segmentación basados en regiones y contornos activos aplicados a imágenes de radar de apertura sintética</t>
+  </si>
+  <si>
+    <t>Algoritmo de Juliana para señales unidireccionales</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -318,11 +327,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,6 +428,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -673,7 +733,7 @@
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -777,21 +837,35 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
